--- a/diccionario.xlsx
+++ b/diccionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesia\Desktop\mi_traductor\traductor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BF0993A1-6008-4C3A-97B4-1A4E825FC200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3AFCC05-1AD1-4C43-AC3E-6FB5B94DE6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="240" uniqueCount="215">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="242" uniqueCount="217">
   <si>
     <t>espanol</t>
   </si>
@@ -674,6 +674,12 @@
   </si>
   <si>
     <t>Ondo</t>
+  </si>
+  <si>
+    <t>rata</t>
+  </si>
+  <si>
+    <t>katip</t>
   </si>
 </sst>
 </file>
@@ -2429,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6200203C-2BB1-4B5B-B4A4-D57E3977545D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,6 +2462,14 @@
         <v>213</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/diccionario.xlsx
+++ b/diccionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesia\Desktop\mi_traductor\traductor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F3AFCC05-1AD1-4C43-AC3E-6FB5B94DE6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D1D83F23-862D-4445-B972-910EC48E6921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="242" uniqueCount="217">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="244" uniqueCount="219">
   <si>
     <t>espanol</t>
   </si>
@@ -680,6 +680,12 @@
   </si>
   <si>
     <t>katip</t>
+  </si>
+  <si>
+    <t>waki</t>
+  </si>
+  <si>
+    <t>devo</t>
   </si>
 </sst>
 </file>
@@ -2438,7 +2444,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,6 +2467,9 @@
       <c r="B2" t="s">
         <v>213</v>
       </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2468,6 +2477,9 @@
       </c>
       <c r="B3" t="s">
         <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/diccionario.xlsx
+++ b/diccionario.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesia\Desktop\mi_traductor\traductor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D1D83F23-862D-4445-B972-910EC48E6921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B22FD425-41B2-4087-A0B1-6E4670910B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="animales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -2444,7 +2444,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/diccionario.xlsx
+++ b/diccionario.xlsx
@@ -5,16 +5,17 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesia\Desktop\mi_traductor\traductor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesia\Desktop\mi_traductor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B22FD425-41B2-4087-A0B1-6E4670910B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BED01878-8A0D-4400-8054-D02A42A214CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario" sheetId="1" r:id="rId1"/>
     <sheet name="animales" sheetId="2" r:id="rId2"/>
+    <sheet name="aves" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="244" uniqueCount="219">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="247" uniqueCount="219">
   <si>
     <t>espanol</t>
   </si>
@@ -1528,7 +1529,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2443,7 +2444,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6200203C-2BB1-4B5B-B4A4-D57E3977545D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2485,4 +2486,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573A0604-8BEC-4540-936C-C3BB727C6545}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/diccionario.xlsx
+++ b/diccionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesia\Desktop\mi_traductor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BED01878-8A0D-4400-8054-D02A42A214CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E1D845C8-C9FE-4A42-9781-56510361B84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="247" uniqueCount="219">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="250" uniqueCount="221">
   <si>
     <t>espanol</t>
   </si>
@@ -668,9 +668,6 @@
     <t>ya</t>
   </si>
   <si>
-    <t>español</t>
-  </si>
-  <si>
     <t>Kúna</t>
   </si>
   <si>
@@ -687,6 +684,15 @@
   </si>
   <si>
     <t>devo</t>
+  </si>
+  <si>
+    <t>ambos</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>mei</t>
   </si>
 </sst>
 </file>
@@ -2444,15 +2450,13 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6200203C-2BB1-4B5B-B4A4-D57E3977545D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2463,24 +2467,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
         <v>215</v>
       </c>
-      <c r="B3" t="s">
-        <v>216</v>
-      </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2490,23 +2494,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573A0604-8BEC-4540-936C-C3BB727C6545}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
